--- a/TECH_DOCS/Component_List.xlsx
+++ b/TECH_DOCS/Component_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://srmist-my.sharepoint.com/personal/tm2418_srmist_edu_in/Documents/Major Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawn3\Documents\Projects\MATERIAL_TRANSFER_ROBOT_2026\TECH_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{FE035FF6-42F5-4E56-BF25-A6196A21B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD2BC15-DA8E-4063-9C11-9FF5A177FC45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129546C2-8449-456D-BC63-C021D0404C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{587E1C00-ABFA-430C-AC57-AAD657CFA718}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Jetson</t>
   </si>
@@ -101,9 +101,6 @@
     <t>https://robu.in/product/200w-20a-dc-dc-buck-converter-step-down-module-constant-current-led-driver-module/?gad_source=1&amp;gad_campaignid=21296336107&amp;gbraid=0AAAAADvLFWf3pThortY7vvhkPJge8zU1F&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGDHe3UFvJrG9uB-FpHImkgOR2C2BggFpDp5nUaXUKS4U0uVFhP4AZxoCDFoQAvD_BwE</t>
   </si>
   <si>
-    <t>https://robu.in/product/pc817-4-ch-optocoupler-isolation-module/#tab-product_download_66939_tab</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -113,12 +110,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://www.amazon.in/SanDisk-Ultra%C2%AE-microSDXCTM-Warranty-Smartphones/dp/B0BDRVFDKP?ref_=Oct_d_obs_d_1388965031_0&amp;pd_rd_w=AaKNQ&amp;content-id=amzn1.sym.173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_p=173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_r=NREMBY60GVWZS353MSBA&amp;pd_rd_wg=jl5kc&amp;pd_rd_r=87f91bb4-8e19-4fb7-8bc7-f852135f24f0&amp;pd_rd_i=B0BDRVFDKP&amp;th=1</t>
-  </si>
-  <si>
-    <t>BMS</t>
-  </si>
-  <si>
     <t>https://robokits.co.in/batteries-chargers/drone-batteries/genx-power-premium-lipo-battery/genxpower-11.1v-lipo-batteries/genx-11.1v-3s-10000mah-25c-50c-premium-lipo-lithium-polymer-battery-with-xt-90-connector?srsltid=AfmBOooU24BSb0pDNYPkmr84eD1LKMpFwWb3v1DBZRyxFBzhoRGeY-Uz</t>
   </si>
   <si>
@@ -132,6 +123,27 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/pc817-2-ch-optocoupler-isolation-module/?gad_source=1&amp;gad_campaignid=17416544847&amp;gbraid=0AAAAADvLFWfJhdWp4Hrs9KXXQarGizHCO&amp;gclid=CjwKCAiA8vXIBhAtEiwAf3B-g_9qMdj4HZaNPhlCUPmQwXjafNFJcKpcQRHjuxCEXT24Ryc3HkhmbRoCABcQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/SanDisk-Ultra%C2%AE-microSDXCTM-Warranty-Smartphones/dp/B0BDYVC5TD/ref=sr_1_1?crid=2RN603SUGCERN&amp;dib=eyJ2IjoiMSJ9.4Mflo7cmSxZBoo1stl2kE0232MzeKWcCWMokhXJOxWtTTaLVv7Z6zZRpcjtN_lGn9rs2qYVLkWgGKKum4oVSI1d0uSgKu5l8Bg7Y59irbuSOYcQJYQ5O9yspVems9lZ1nTWcsdcBTBXI5IzWhlYKNm8VaLWSg-SP-sxf7GvGGbW1Z-bqsbxx2uRv1HMkNVPvVTCI4DXF-grAjVVqw2e8IvAGA5W7g3v1auiZNzyvqyk.Tpw_GyWI41M63wZ7HWvSna-CrvbmQk0aHeR_bNPTRvE&amp;dib_tag=se&amp;keywords=sandisk%2B128gb%2Bsd%2Bcard&amp;qid=1763641382&amp;sprefix=sandisk%2B128gb%2B%2Caps%2C249&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Reviewed and Yet to be Ordered</t>
+  </si>
+  <si>
+    <t>Ordered and yet to receive</t>
+  </si>
+  <si>
+    <t>Yet to review</t>
+  </si>
+  <si>
+    <t>To be updated</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +186,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,11 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,10 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FEF0D2-63B1-441A-B931-8639EFE3E52D}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,30 +576,30 @@
     <col min="5" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +613,12 @@
         <f>B2*C2</f>
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,11 +629,15 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D18" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D17" si="0">B3*C3</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,8 +651,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L4" s="5"/>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -629,8 +670,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -641,8 +686,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L6" s="6"/>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -663,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,232 +721,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>450</v>
+        <f>B10*C10</f>
+        <v>120</v>
       </c>
       <c r="E10">
-        <v>1299</v>
+        <v>369</v>
       </c>
       <c r="F10">
         <f>E10*C10</f>
+        <v>369</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>588</v>
+      </c>
+      <c r="F11">
+        <f>E11*C11</f>
+        <v>588</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1479</v>
+      </c>
+      <c r="F12">
+        <f>E12*C12</f>
+        <v>1479</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>450</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E13">
         <v>1299</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F13">
+        <f>E13*C13</f>
+        <v>1299</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>648</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>5115</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F17" si="1">E11*C11</f>
+      <c r="F14">
+        <f t="shared" ref="F14:F17" si="1">E14*C14</f>
         <v>5115</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>131</v>
-      </c>
-      <c r="F12">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>66</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>271</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>599</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>599</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>150</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>799</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>2397</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>120</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E15">
-        <v>369</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>369</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>588</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>588</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>809</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>809</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <f>SUM(D2:D18)</f>
-        <v>2494</v>
-      </c>
-      <c r="F19">
-        <f>SUM(F10:F18)</f>
-        <v>11307</v>
+        <f>SUM(D2:D17)</f>
+        <v>2512</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F13:F17)</f>
+        <v>9542</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" display="https://www.amazon.in/AllExtreme-EXPINT01-Smartphones-Equipment-Electronics/dp/B0BM4M8XJB/ref=sr_1_3?dib=eyJ2IjoiMSJ9.uAwPLUXh6JlwIy7Q_cxAWylklpLVgh1FBfdXJIsWNYWT9jaRmk2gTlwLyNJP3gICIP8w0PkvYbfrkRif9ZtD-mr5M5VxeIoXRwpkKmgypYOEPWLvdfdhUHLwvZpq_GkgbfGmDdyU_bzoznS-64NP_pwWYmZhFrEP9aPYrefDI3jNMhIwvm5PPN08y8tBpoW2-FmE6Zmej-ouIrHOtpQxm_Z6LRqDLP3asEO5YrpJsmQ.bU8wuWfsx_Y8OjxvuOQOygvj-YGbB94MCyPt8gZ8pLY&amp;dib_tag=se&amp;keywords=DC%2Bto%2BAC%2BConverter&amp;qid=1763033021&amp;sr=8-3&amp;th=1" xr:uid="{6B4FE2A4-F29E-458A-AE95-F7F700441488}"/>
-    <hyperlink ref="G11" r:id="rId2" display="https://robokits.co.in/batteries-chargers/drone-batteries/genx-power-premium-lipo-battery/genxpower-11.1v-lipo-batteries/genx-11.1v-3s-10000mah-25c-50c-premium-lipo-lithium-polymer-battery-with-xt-90-connector?srsltid=AfmBOooU24BSb0pDNYPkmr84eD1LKMpFwWb3v1DBZRyxFBzhoRGeY-Uz" xr:uid="{C389A7CF-3369-4717-B592-5D3A2B95D2DD}"/>
-    <hyperlink ref="G12" r:id="rId3" location="tab-product_download_66939_tab" xr:uid="{AF50EB0B-D1C2-4E25-9E43-909BF0291758}"/>
-    <hyperlink ref="G13" r:id="rId4" display="https://www.amazon.in/pTron-Bluetooth-Multi-Playback-Modes-BT5-4-Multi-Function/dp/B0DVC9J6YC/ref=pd_bxgy_d_sccl_2/261-7866506-6055210?pd_rd_w=D8zL2&amp;content-id=amzn1.sym.57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_p=57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_r=MW804CW9P7RQ6SCATARR&amp;pd_rd_wg=9UH42&amp;pd_rd_r=8c42177b-5c4d-4af3-9983-92384c1a7bda&amp;pd_rd_i=B0DVC9J6YC&amp;th=1" xr:uid="{11290B10-FF86-41FF-9C4B-7E9A90B6275B}"/>
-    <hyperlink ref="G14" r:id="rId5" location="tab-specification" display="https://robu.in/product/3k-roll-wrapped-carbon-fibre-tube-hollow/?gad_source=1&amp;gad_campaignid=20387462343&amp;gbraid=0AAAAADvLFWd9HAhsRmGknkX1yJPNy_lrs&amp;gclid=CjwKCAiA2svIBhB-EiwARWDPjjxc16PdkhC3JsYFcGlQ6d8LOyD9rvtEdtqQnqBPRPr-5N5Ugm2ooBoCUb4QAvD_BwE#tab-specification" xr:uid="{6B5F89C0-B697-4343-BE87-B8EFDBB74057}"/>
-    <hyperlink ref="G15" r:id="rId6" display="https://robu.in/product/200w-20a-dc-dc-buck-converter-step-down-module-constant-current-led-driver-module/?gad_source=1&amp;gad_campaignid=21296336107&amp;gbraid=0AAAAADvLFWf3pThortY7vvhkPJge8zU1F&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGDHe3UFvJrG9uB-FpHImkgOR2C2BggFpDp5nUaXUKS4U0uVFhP4AZxoCDFoQAvD_BwE" xr:uid="{E682FFFE-339B-48D0-B468-69188FB082B5}"/>
-    <hyperlink ref="G16" r:id="rId7" display="https://tannatechbiz.com/tp-link-tl-wn725n-150-mbps-wireless-n-nano-usb-adapter-nano-size-wifi-dongle-compatible-with-nvidia-jetson-nano-and-raspberry-pi.html?gad_source=1&amp;gad_campaignid=20374721411&amp;gbraid=0AAAAAC1l_MEySnUTv-nyip5L6sWvTwisK&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGPzI7RVuD1TUm3bLR6pz0fNfUBMnsL6IBxjqpIJlqQiVlEUoweSUqxoCylEQAvD_BwE" xr:uid="{5659F8C8-A7FF-4AE8-AAFD-AF884AD42B9A}"/>
-    <hyperlink ref="G17" r:id="rId8" display="https://www.amazon.in/SanDisk-Ultra%C2%AE-microSDXCTM-Warranty-Smartphones/dp/B0BDRVFDKP?ref_=Oct_d_obs_d_1388965031_0&amp;pd_rd_w=AaKNQ&amp;content-id=amzn1.sym.173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_p=173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_r=NREMBY60GVWZS353MSBA&amp;pd_rd_wg=jl5kc&amp;pd_rd_r=87f91bb4-8e19-4fb7-8bc7-f852135f24f0&amp;pd_rd_i=B0BDRVFDKP&amp;th=1" xr:uid="{E7E0AC07-0680-4ACD-9970-53DA60EBAC2C}"/>
+    <hyperlink ref="G13" r:id="rId1" display="https://www.amazon.in/AllExtreme-EXPINT01-Smartphones-Equipment-Electronics/dp/B0BM4M8XJB/ref=sr_1_3?dib=eyJ2IjoiMSJ9.uAwPLUXh6JlwIy7Q_cxAWylklpLVgh1FBfdXJIsWNYWT9jaRmk2gTlwLyNJP3gICIP8w0PkvYbfrkRif9ZtD-mr5M5VxeIoXRwpkKmgypYOEPWLvdfdhUHLwvZpq_GkgbfGmDdyU_bzoznS-64NP_pwWYmZhFrEP9aPYrefDI3jNMhIwvm5PPN08y8tBpoW2-FmE6Zmej-ouIrHOtpQxm_Z6LRqDLP3asEO5YrpJsmQ.bU8wuWfsx_Y8OjxvuOQOygvj-YGbB94MCyPt8gZ8pLY&amp;dib_tag=se&amp;keywords=DC%2Bto%2BAC%2BConverter&amp;qid=1763033021&amp;sr=8-3&amp;th=1" xr:uid="{6B4FE2A4-F29E-458A-AE95-F7F700441488}"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://robokits.co.in/batteries-chargers/drone-batteries/genx-power-premium-lipo-battery/genxpower-11.1v-lipo-batteries/genx-11.1v-3s-10000mah-25c-50c-premium-lipo-lithium-polymer-battery-with-xt-90-connector?srsltid=AfmBOooU24BSb0pDNYPkmr84eD1LKMpFwWb3v1DBZRyxFBzhoRGeY-Uz" xr:uid="{C389A7CF-3369-4717-B592-5D3A2B95D2DD}"/>
+    <hyperlink ref="G16" r:id="rId3" display="https://www.amazon.in/pTron-Bluetooth-Multi-Playback-Modes-BT5-4-Multi-Function/dp/B0DVC9J6YC/ref=pd_bxgy_d_sccl_2/261-7866506-6055210?pd_rd_w=D8zL2&amp;content-id=amzn1.sym.57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_p=57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_r=MW804CW9P7RQ6SCATARR&amp;pd_rd_wg=9UH42&amp;pd_rd_r=8c42177b-5c4d-4af3-9983-92384c1a7bda&amp;pd_rd_i=B0DVC9J6YC&amp;th=1" xr:uid="{11290B10-FF86-41FF-9C4B-7E9A90B6275B}"/>
+    <hyperlink ref="G17" r:id="rId4" location="tab-specification" display="https://robu.in/product/3k-roll-wrapped-carbon-fibre-tube-hollow/?gad_source=1&amp;gad_campaignid=20387462343&amp;gbraid=0AAAAADvLFWd9HAhsRmGknkX1yJPNy_lrs&amp;gclid=CjwKCAiA2svIBhB-EiwARWDPjjxc16PdkhC3JsYFcGlQ6d8LOyD9rvtEdtqQnqBPRPr-5N5Ugm2ooBoCUb4QAvD_BwE#tab-specification" xr:uid="{6B5F89C0-B697-4343-BE87-B8EFDBB74057}"/>
+    <hyperlink ref="G10" r:id="rId5" display="https://robu.in/product/200w-20a-dc-dc-buck-converter-step-down-module-constant-current-led-driver-module/?gad_source=1&amp;gad_campaignid=21296336107&amp;gbraid=0AAAAADvLFWf3pThortY7vvhkPJge8zU1F&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGDHe3UFvJrG9uB-FpHImkgOR2C2BggFpDp5nUaXUKS4U0uVFhP4AZxoCDFoQAvD_BwE" xr:uid="{E682FFFE-339B-48D0-B468-69188FB082B5}"/>
+    <hyperlink ref="G11" r:id="rId6" display="https://tannatechbiz.com/tp-link-tl-wn725n-150-mbps-wireless-n-nano-usb-adapter-nano-size-wifi-dongle-compatible-with-nvidia-jetson-nano-and-raspberry-pi.html?gad_source=1&amp;gad_campaignid=20374721411&amp;gbraid=0AAAAAC1l_MEySnUTv-nyip5L6sWvTwisK&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGPzI7RVuD1TUm3bLR6pz0fNfUBMnsL6IBxjqpIJlqQiVlEUoweSUqxoCylEQAvD_BwE" xr:uid="{5659F8C8-A7FF-4AE8-AAFD-AF884AD42B9A}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{4E40CD77-5CFD-47F1-87C5-7FBE965A9A4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TECH_DOCS/Component_List.xlsx
+++ b/TECH_DOCS/Component_List.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://srmist-my.sharepoint.com/personal/tm2418_srmist_edu_in/Documents/Major Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESEARCH\STUDENTS\2025-26\MATERIAL_TRANSFER_ROBOT_2026\MATERIAL_TRANSFER_ROBOT_2026\TECH_DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{FE035FF6-42F5-4E56-BF25-A6196A21B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD2BC15-DA8E-4063-9C11-9FF5A177FC45}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{587E1C00-ABFA-430C-AC57-AAD657CFA718}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,23 +530,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FEF0D2-63B1-441A-B931-8639EFE3E52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -570,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,7 +614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -630,7 +629,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -642,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -663,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -697,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -722,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -747,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -772,7 +771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -797,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -822,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -847,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -868,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -878,7 +877,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="D19">
         <f>SUM(D2:D18)</f>
         <v>2494</v>
@@ -890,14 +889,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" display="https://www.amazon.in/AllExtreme-EXPINT01-Smartphones-Equipment-Electronics/dp/B0BM4M8XJB/ref=sr_1_3?dib=eyJ2IjoiMSJ9.uAwPLUXh6JlwIy7Q_cxAWylklpLVgh1FBfdXJIsWNYWT9jaRmk2gTlwLyNJP3gICIP8w0PkvYbfrkRif9ZtD-mr5M5VxeIoXRwpkKmgypYOEPWLvdfdhUHLwvZpq_GkgbfGmDdyU_bzoznS-64NP_pwWYmZhFrEP9aPYrefDI3jNMhIwvm5PPN08y8tBpoW2-FmE6Zmej-ouIrHOtpQxm_Z6LRqDLP3asEO5YrpJsmQ.bU8wuWfsx_Y8OjxvuOQOygvj-YGbB94MCyPt8gZ8pLY&amp;dib_tag=se&amp;keywords=DC%2Bto%2BAC%2BConverter&amp;qid=1763033021&amp;sr=8-3&amp;th=1" xr:uid="{6B4FE2A4-F29E-458A-AE95-F7F700441488}"/>
-    <hyperlink ref="G11" r:id="rId2" display="https://robokits.co.in/batteries-chargers/drone-batteries/genx-power-premium-lipo-battery/genxpower-11.1v-lipo-batteries/genx-11.1v-3s-10000mah-25c-50c-premium-lipo-lithium-polymer-battery-with-xt-90-connector?srsltid=AfmBOooU24BSb0pDNYPkmr84eD1LKMpFwWb3v1DBZRyxFBzhoRGeY-Uz" xr:uid="{C389A7CF-3369-4717-B592-5D3A2B95D2DD}"/>
-    <hyperlink ref="G12" r:id="rId3" location="tab-product_download_66939_tab" xr:uid="{AF50EB0B-D1C2-4E25-9E43-909BF0291758}"/>
-    <hyperlink ref="G13" r:id="rId4" display="https://www.amazon.in/pTron-Bluetooth-Multi-Playback-Modes-BT5-4-Multi-Function/dp/B0DVC9J6YC/ref=pd_bxgy_d_sccl_2/261-7866506-6055210?pd_rd_w=D8zL2&amp;content-id=amzn1.sym.57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_p=57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_r=MW804CW9P7RQ6SCATARR&amp;pd_rd_wg=9UH42&amp;pd_rd_r=8c42177b-5c4d-4af3-9983-92384c1a7bda&amp;pd_rd_i=B0DVC9J6YC&amp;th=1" xr:uid="{11290B10-FF86-41FF-9C4B-7E9A90B6275B}"/>
-    <hyperlink ref="G14" r:id="rId5" location="tab-specification" display="https://robu.in/product/3k-roll-wrapped-carbon-fibre-tube-hollow/?gad_source=1&amp;gad_campaignid=20387462343&amp;gbraid=0AAAAADvLFWd9HAhsRmGknkX1yJPNy_lrs&amp;gclid=CjwKCAiA2svIBhB-EiwARWDPjjxc16PdkhC3JsYFcGlQ6d8LOyD9rvtEdtqQnqBPRPr-5N5Ugm2ooBoCUb4QAvD_BwE#tab-specification" xr:uid="{6B5F89C0-B697-4343-BE87-B8EFDBB74057}"/>
-    <hyperlink ref="G15" r:id="rId6" display="https://robu.in/product/200w-20a-dc-dc-buck-converter-step-down-module-constant-current-led-driver-module/?gad_source=1&amp;gad_campaignid=21296336107&amp;gbraid=0AAAAADvLFWf3pThortY7vvhkPJge8zU1F&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGDHe3UFvJrG9uB-FpHImkgOR2C2BggFpDp5nUaXUKS4U0uVFhP4AZxoCDFoQAvD_BwE" xr:uid="{E682FFFE-339B-48D0-B468-69188FB082B5}"/>
-    <hyperlink ref="G16" r:id="rId7" display="https://tannatechbiz.com/tp-link-tl-wn725n-150-mbps-wireless-n-nano-usb-adapter-nano-size-wifi-dongle-compatible-with-nvidia-jetson-nano-and-raspberry-pi.html?gad_source=1&amp;gad_campaignid=20374721411&amp;gbraid=0AAAAAC1l_MEySnUTv-nyip5L6sWvTwisK&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGPzI7RVuD1TUm3bLR6pz0fNfUBMnsL6IBxjqpIJlqQiVlEUoweSUqxoCylEQAvD_BwE" xr:uid="{5659F8C8-A7FF-4AE8-AAFD-AF884AD42B9A}"/>
-    <hyperlink ref="G17" r:id="rId8" display="https://www.amazon.in/SanDisk-Ultra%C2%AE-microSDXCTM-Warranty-Smartphones/dp/B0BDRVFDKP?ref_=Oct_d_obs_d_1388965031_0&amp;pd_rd_w=AaKNQ&amp;content-id=amzn1.sym.173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_p=173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_r=NREMBY60GVWZS353MSBA&amp;pd_rd_wg=jl5kc&amp;pd_rd_r=87f91bb4-8e19-4fb7-8bc7-f852135f24f0&amp;pd_rd_i=B0BDRVFDKP&amp;th=1" xr:uid="{E7E0AC07-0680-4ACD-9970-53DA60EBAC2C}"/>
+    <hyperlink ref="G10" r:id="rId1" display="https://www.amazon.in/AllExtreme-EXPINT01-Smartphones-Equipment-Electronics/dp/B0BM4M8XJB/ref=sr_1_3?dib=eyJ2IjoiMSJ9.uAwPLUXh6JlwIy7Q_cxAWylklpLVgh1FBfdXJIsWNYWT9jaRmk2gTlwLyNJP3gICIP8w0PkvYbfrkRif9ZtD-mr5M5VxeIoXRwpkKmgypYOEPWLvdfdhUHLwvZpq_GkgbfGmDdyU_bzoznS-64NP_pwWYmZhFrEP9aPYrefDI3jNMhIwvm5PPN08y8tBpoW2-FmE6Zmej-ouIrHOtpQxm_Z6LRqDLP3asEO5YrpJsmQ.bU8wuWfsx_Y8OjxvuOQOygvj-YGbB94MCyPt8gZ8pLY&amp;dib_tag=se&amp;keywords=DC%2Bto%2BAC%2BConverter&amp;qid=1763033021&amp;sr=8-3&amp;th=1"/>
+    <hyperlink ref="G11"/>
+    <hyperlink ref="G12" r:id="rId2" location="tab-product_download_66939_tab"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://www.amazon.in/pTron-Bluetooth-Multi-Playback-Modes-BT5-4-Multi-Function/dp/B0DVC9J6YC/ref=pd_bxgy_d_sccl_2/261-7866506-6055210?pd_rd_w=D8zL2&amp;content-id=amzn1.sym.57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_p=57503de9-69e3-4be6-b28e-078e53027fb4&amp;pf_rd_r=MW804CW9P7RQ6SCATARR&amp;pd_rd_wg=9UH42&amp;pd_rd_r=8c42177b-5c4d-4af3-9983-92384c1a7bda&amp;pd_rd_i=B0DVC9J6YC&amp;th=1"/>
+    <hyperlink ref="G14" r:id="rId4" location="tab-specification" display="https://robu.in/product/3k-roll-wrapped-carbon-fibre-tube-hollow/?gad_source=1&amp;gad_campaignid=20387462343&amp;gbraid=0AAAAADvLFWd9HAhsRmGknkX1yJPNy_lrs&amp;gclid=CjwKCAiA2svIBhB-EiwARWDPjjxc16PdkhC3JsYFcGlQ6d8LOyD9rvtEdtqQnqBPRPr-5N5Ugm2ooBoCUb4QAvD_BwE#tab-specification"/>
+    <hyperlink ref="G15" r:id="rId5" display="https://robu.in/product/200w-20a-dc-dc-buck-converter-step-down-module-constant-current-led-driver-module/?gad_source=1&amp;gad_campaignid=21296336107&amp;gbraid=0AAAAADvLFWf3pThortY7vvhkPJge8zU1F&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGDHe3UFvJrG9uB-FpHImkgOR2C2BggFpDp5nUaXUKS4U0uVFhP4AZxoCDFoQAvD_BwE"/>
+    <hyperlink ref="G16" r:id="rId6" display="https://tannatechbiz.com/tp-link-tl-wn725n-150-mbps-wireless-n-nano-usb-adapter-nano-size-wifi-dongle-compatible-with-nvidia-jetson-nano-and-raspberry-pi.html?gad_source=1&amp;gad_campaignid=20374721411&amp;gbraid=0AAAAAC1l_MEySnUTv-nyip5L6sWvTwisK&amp;gclid=CjwKCAiAoNbIBhB5EiwAZFbYGPzI7RVuD1TUm3bLR6pz0fNfUBMnsL6IBxjqpIJlqQiVlEUoweSUqxoCylEQAvD_BwE"/>
+    <hyperlink ref="G17" r:id="rId7" display="https://www.amazon.in/SanDisk-Ultra%C2%AE-microSDXCTM-Warranty-Smartphones/dp/B0BDRVFDKP?ref_=Oct_d_obs_d_1388965031_0&amp;pd_rd_w=AaKNQ&amp;content-id=amzn1.sym.173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_p=173983d0-d713-4684-a64b-0ce5fd9d608b&amp;pf_rd_r=NREMBY60GVWZS353MSBA&amp;pd_rd_wg=jl5kc&amp;pd_rd_r=87f91bb4-8e19-4fb7-8bc7-f852135f24f0&amp;pd_rd_i=B0BDRVFDKP&amp;th=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
